--- a/Taller_1_infra.xlsx
+++ b/Taller_1_infra.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagr2\Documents\unisabana\9no_semestre\Infra\Primer taller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagr2\Documents\Infra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0951A5-693D-48C8-89BE-46A18E827800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3026FA-C5F6-4625-9830-079D8805651B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{9DDBB0AC-D19B-419B-BB0D-019CD49099F5}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="125">
   <si>
     <t>Mascara /16</t>
   </si>
@@ -264,13 +264,596 @@
   </si>
   <si>
     <t>Direccion de red</t>
+  </si>
+  <si>
+    <t>📌 Paso a paso para subnetting a mano</t>
+  </si>
+  <si>
+    <t>Ejemplo:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tienes la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>red 192.168.10.0/24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y necesitas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 subredes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. ¿Cómo las divides?</t>
+    </r>
+  </si>
+  <si>
+    <t>🔹 Paso 1: Identificar la red base</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">📌 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dado:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>192.168.10.0/24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">📌 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Significa que hay 24 bits para la red y 8 bits para los hosts.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">📌 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cantidad total de IPs disponibles = 28=2562^8 = 25628=256 (incluye red y broadcast).</t>
+    </r>
+  </si>
+  <si>
+    <t>🔹 Paso 2: Determinar cuántos bits necesitas para las subredes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ Queremos </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 subredes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ Necesitamos </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X bits en la máscara</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para lograrlo.</t>
+    </r>
+  </si>
+  <si>
+    <t>✅ Fórmula:</t>
+  </si>
+  <si>
+    <t>2X≥Cantidad de subredes requeridas2^X \geq \text{Cantidad de subredes requeridas}2X≥Cantidad de subredes requeridas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ Como </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22=42^2 = 422=4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>necesitamos 2 bits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> extra para las subredes.</t>
+    </r>
+  </si>
+  <si>
+    <t>🔹 Paso 3: Calcular la nueva máscara de subred</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">📌 Partimos de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (255.255.255.0).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">📌 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sumamos 2 bits para las subredes → /26</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">📌 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nueva máscara:</t>
+    </r>
+  </si>
+  <si>
+    <t>arduino</t>
+  </si>
+  <si>
+    <t>CopyEdit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/26 = 255.255.255.192  </t>
+  </si>
+  <si>
+    <t>(192 porque en binario es 11000000, donde los dos primeros bits están "fijos" para subneteo).</t>
+  </si>
+  <si>
+    <t>🔹 Paso 4: Determinar el rango de cada subred</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cada subred tendrá:</t>
+    </r>
+  </si>
+  <si>
+    <t>2(32−26)=26=64 IPs por subred.2^{(32 - 26)} = 2^6 = 64 \text{ IPs por subred.}2(32−26)=26=64 IPs por subred.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Saltos de subred:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Primer IP de cada subred: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0, 64, 128, 192</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🔹 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resultado final:</t>
+    </r>
+  </si>
+  <si>
+    <t>Subred</t>
+  </si>
+  <si>
+    <t>Dirección de Red</t>
+  </si>
+  <si>
+    <t>Rango de hosts</t>
+  </si>
+  <si>
+    <t>192.168.10.0/26</t>
+  </si>
+  <si>
+    <t>192.168.10.1 - 192.168.10.62</t>
+  </si>
+  <si>
+    <t>192.168.10.63</t>
+  </si>
+  <si>
+    <t>192.168.10.64/26</t>
+  </si>
+  <si>
+    <t>192.168.10.65 - 192.168.10.126</t>
+  </si>
+  <si>
+    <t>192.168.10.127</t>
+  </si>
+  <si>
+    <t>192.168.10.128/26</t>
+  </si>
+  <si>
+    <t>192.168.10.129 - 192.168.10.190</t>
+  </si>
+  <si>
+    <t>192.168.10.191</t>
+  </si>
+  <si>
+    <t>192.168.10.192/26</t>
+  </si>
+  <si>
+    <t>192.168.10.193 - 192.168.10.254</t>
+  </si>
+  <si>
+    <t>192.168.10.255</t>
+  </si>
+  <si>
+    <t>📌 Paso 5: Verificar los resultados</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cada subred tiene 64 IPs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Primer IP = Dirección de red.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Última IP = Broadcast.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hosts válidos en el medio.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🔹 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>¡Subneteo completado con éxito! 🎯</t>
+    </r>
+  </si>
+  <si>
+    <t>🔹 Fórmula rápida para subnetear en el examen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1️⃣ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Determina la cantidad de subredes necesarias</t>
+    </r>
+  </si>
+  <si>
+    <t>2X≥Subredes necesarias2^X \geq \text{Subredes necesarias}2X≥Subredes necesarias</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2️⃣ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Calcula la nueva máscara</t>
+    </r>
+  </si>
+  <si>
+    <t>/Original + X bits</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3️⃣ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Calcula el tamaño de cada subred</t>
+    </r>
+  </si>
+  <si>
+    <t>2(32−Nueva maˊscara)2^{(32 - \text{Nueva máscara})}2(32−Nueva maˊscara)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4️⃣ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Saca los saltos de subred</t>
+    </r>
+  </si>
+  <si>
+    <t>Primer IP + Tamaño de subred</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +871,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -418,7 +1030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -471,6 +1083,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -485,6 +1098,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -522,22 +1150,36 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2663,13 +3305,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C0D2E7-863C-461A-A631-523186D2B0D5}">
-  <dimension ref="A4:W29"/>
+  <dimension ref="A4:W116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="59" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.453125" customWidth="1"/>
     <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
@@ -2680,7 +3322,7 @@
     <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23">
       <c r="N4" s="4">
         <v>2</v>
       </c>
@@ -2691,7 +3333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23">
       <c r="N5" s="2" cm="1">
         <f t="array" ref="N5:N20">_xlfn.SEQUENCE(H16,1,2,0)</f>
         <v>2</v>
@@ -2705,7 +3347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23">
       <c r="N6" s="2">
         <v>2</v>
       </c>
@@ -2717,7 +3359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:23">
       <c r="N7" s="2">
         <v>2</v>
       </c>
@@ -2729,7 +3371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:23">
       <c r="N8" s="2">
         <v>2</v>
       </c>
@@ -2741,7 +3383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:23">
       <c r="N9" s="2">
         <v>2</v>
       </c>
@@ -2757,7 +3399,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:23">
       <c r="N10" s="2">
         <v>2</v>
       </c>
@@ -2769,7 +3411,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:23">
       <c r="N11" s="2">
         <v>2</v>
       </c>
@@ -2781,7 +3423,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:23">
       <c r="N12" s="2">
         <v>2</v>
       </c>
@@ -2793,7 +3435,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:23">
       <c r="N13" s="2">
         <v>2</v>
       </c>
@@ -2805,7 +3447,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:23">
       <c r="N14" s="2">
         <v>2</v>
       </c>
@@ -2817,7 +3459,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:23">
       <c r="B15" s="13" t="s">
         <v>18</v>
       </c>
@@ -2844,7 +3486,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:23">
       <c r="B16" s="13" t="s">
         <v>0</v>
       </c>
@@ -2878,7 +3520,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="40" customHeight="1">
       <c r="N17" s="2">
         <v>2</v>
       </c>
@@ -2890,7 +3532,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="31" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
@@ -2909,7 +3551,7 @@
       <c r="F18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="46"/>
+      <c r="K18" s="24"/>
       <c r="N18" s="2">
         <v>2</v>
       </c>
@@ -2921,7 +3563,7 @@
         <v>16384</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16">
       <c r="A19" s="8" t="s">
         <v>9</v>
       </c>
@@ -2955,7 +3597,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16">
       <c r="A20" s="8" t="s">
         <v>1</v>
       </c>
@@ -2989,7 +3631,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16">
       <c r="A21" s="8" t="s">
         <v>2</v>
       </c>
@@ -3013,7 +3655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16">
       <c r="A22" s="8" t="s">
         <v>3</v>
       </c>
@@ -3037,7 +3679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16">
       <c r="A23" s="8" t="s">
         <v>10</v>
       </c>
@@ -3061,40 +3703,338 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16">
       <c r="E24" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27" s="24" t="s">
+    <row r="27" spans="1:16">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="14">
         <f>2^16</f>
         <v>65536</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" s="24" t="s">
+    <row r="28" spans="1:16">
+      <c r="A28" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="14">
         <f>SUM(D19:D23)</f>
         <v>6912</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="24" t="s">
+    <row r="29" spans="1:16">
+      <c r="A29" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="14">
         <f>D27-D28</f>
         <v>58624</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="31">
+      <c r="A32" s="48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="17.5">
+      <c r="A34" s="49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="17.5">
+      <c r="A40" s="49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="17.5">
+      <c r="A48" s="49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="17.5">
+      <c r="A60" s="49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="47"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="17.5">
+      <c r="A73" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="51"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="29">
+      <c r="A85" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D85" s="52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="43.5">
+      <c r="A86" s="54">
+        <v>1</v>
+      </c>
+      <c r="B86" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D86" s="53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="58">
+      <c r="A87" s="54">
+        <v>2</v>
+      </c>
+      <c r="B87" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" s="53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="58">
+      <c r="A88" s="54">
+        <v>3</v>
+      </c>
+      <c r="B88" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C88" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D88" s="53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="58">
+      <c r="A89" s="54">
+        <v>4</v>
+      </c>
+      <c r="B89" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" s="53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="17.5">
+      <c r="A92" s="49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="23.5">
+      <c r="A103" s="55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="51"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="51"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="51"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="51" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="51"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="56" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3117,7 +4057,7 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
@@ -3146,8 +4086,8 @@
     <col min="29" max="30" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="10" customFormat="1"/>
+    <row r="2" spans="1:30" s="10" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>22</v>
       </c>
@@ -3156,52 +4096,52 @@
         <v>2887057408</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="28" t="s">
+    <row r="3" spans="1:30" s="10" customFormat="1"/>
+    <row r="4" spans="1:30" s="10" customFormat="1">
+      <c r="C4" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="28" t="s">
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="28" t="s">
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="25" t="s">
+      <c r="U4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="28" t="s">
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="25" t="s">
+      <c r="AA4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="27"/>
-    </row>
-    <row r="5" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="28"/>
+    </row>
+    <row r="5" spans="1:30" s="10" customFormat="1">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -3220,7 +4160,7 @@
       <c r="F5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="29"/>
       <c r="H5" s="11" t="s">
         <v>23</v>
       </c>
@@ -3236,7 +4176,7 @@
       <c r="L5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="28"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="11" t="s">
         <v>25</v>
       </c>
@@ -3252,7 +4192,7 @@
       <c r="R5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="28"/>
+      <c r="S5" s="29"/>
       <c r="T5" s="11" t="s">
         <v>26</v>
       </c>
@@ -3268,7 +4208,7 @@
       <c r="X5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Y5" s="28"/>
+      <c r="Y5" s="29"/>
       <c r="Z5" s="11" t="s">
         <v>27</v>
       </c>
@@ -3285,7 +4225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" s="10" customFormat="1">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -3402,7 +4342,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" s="10" customFormat="1">
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
@@ -3519,7 +4459,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" s="10" customFormat="1">
       <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
@@ -3636,7 +4576,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" s="10" customFormat="1">
       <c r="A9" s="8" t="s">
         <v>3</v>
       </c>
@@ -3753,7 +4693,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" s="10" customFormat="1">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
@@ -3895,7 +4835,7 @@
       <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="8" max="8" width="13.36328125" customWidth="1"/>
     <col min="13" max="13" width="13.36328125" bestFit="1" customWidth="1"/>
@@ -3907,7 +4847,7 @@
     <col min="23" max="23" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="7:25">
       <c r="G1" s="3" t="s">
         <v>45</v>
       </c>
@@ -3915,29 +4855,29 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="7:25" x14ac:dyDescent="0.35">
-      <c r="H3" s="42" t="s">
+    <row r="3" spans="7:25">
+      <c r="H3" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="M3" s="43" t="s">
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="M3" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="R3" s="44" t="s">
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="R3" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="W3" s="45" t="s">
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="W3" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-    </row>
-    <row r="4" spans="7:25" x14ac:dyDescent="0.35">
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+    </row>
+    <row r="4" spans="7:25">
       <c r="H4" s="5" t="s">
         <v>38</v>
       </c>
@@ -3975,7 +4915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="7:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="7:25">
       <c r="H5" s="5" t="s">
         <v>33</v>
       </c>
@@ -4017,7 +4957,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="7:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="7:25">
       <c r="H6" s="5" t="s">
         <v>36</v>
       </c>
@@ -4063,7 +5003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="7:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="7:25">
       <c r="H7" s="5" t="s">
         <v>37</v>
       </c>
@@ -4101,7 +5041,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="7:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="7:25">
       <c r="H8" s="5" t="s">
         <v>41</v>
       </c>
@@ -4135,25 +5075,25 @@
       </c>
       <c r="Y8" s="2"/>
     </row>
-    <row r="12" spans="7:25" x14ac:dyDescent="0.35">
-      <c r="G12" s="41" t="s">
+    <row r="12" spans="7:25">
+      <c r="G12" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
       <c r="K12" s="2">
         <f>365*24*60</f>
         <v>525600</v>
       </c>
     </row>
-    <row r="13" spans="7:25" x14ac:dyDescent="0.35">
-      <c r="G13" s="41" t="s">
+    <row r="13" spans="7:25">
+      <c r="G13" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
       <c r="K13" s="2">
         <v>10</v>
       </c>
@@ -4185,13 +5125,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="7:25" x14ac:dyDescent="0.35">
-      <c r="G14" s="41" t="s">
+    <row r="14" spans="7:25">
+      <c r="G14" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="2">
         <f>K12-K13</f>
         <v>525590</v>
@@ -4228,13 +5168,13 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="15" spans="7:25" x14ac:dyDescent="0.35">
-      <c r="G15" s="41" t="s">
+    <row r="15" spans="7:25">
+      <c r="G15" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
       <c r="K15" s="2">
         <f>K14/K12</f>
         <v>0.9999809741248098</v>
@@ -4271,7 +5211,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="16" spans="7:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="7:25">
       <c r="G16" s="5" t="s">
         <v>51</v>
       </c>
@@ -4317,13 +5257,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="7:29" x14ac:dyDescent="0.35">
-      <c r="G17" s="41" t="s">
+    <row r="17" spans="7:29">
+      <c r="G17" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
       <c r="K17" s="2">
         <f>K15-K16</f>
         <v>1.0953344575100998E-2</v>
@@ -4363,20 +5303,20 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="7:29" x14ac:dyDescent="0.35">
-      <c r="G18" s="41" t="s">
+    <row r="18" spans="7:29">
+      <c r="G18" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
       <c r="K18" s="2">
         <f>COUNTIF(I8, "&gt;= " &amp; K15) + COUNTIF(N8, "&gt;= " &amp; K15) + COUNTIF(S8, "&gt;= " &amp; K15) + COUNTIF(X8, "&gt;= " &amp; K15)</f>
         <v>0</v>
       </c>
       <c r="L18" s="18"/>
     </row>
-    <row r="19" spans="7:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="7:29">
       <c r="N19" s="5" t="s">
         <v>64</v>
       </c>
@@ -4409,7 +5349,7 @@
         <v>SI</v>
       </c>
     </row>
-    <row r="20" spans="7:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="7:29">
       <c r="N20" s="15" t="s">
         <v>54</v>
       </c>
@@ -4430,69 +5370,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="7:29" x14ac:dyDescent="0.35">
-      <c r="O25" s="32" t="s">
+    <row r="25" spans="7:29">
+      <c r="O25" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="34"/>
-      <c r="S25" s="35" t="s">
+      <c r="P25" s="39"/>
+      <c r="Q25" s="40"/>
+      <c r="S25" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="T25" s="36"/>
-      <c r="U25" s="37"/>
-      <c r="W25" s="38" t="s">
+      <c r="T25" s="42"/>
+      <c r="U25" s="43"/>
+      <c r="W25" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="40"/>
-      <c r="AA25" s="29" t="s">
+      <c r="X25" s="45"/>
+      <c r="Y25" s="46"/>
+      <c r="AA25" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="31"/>
-    </row>
-    <row r="27" spans="7:29" x14ac:dyDescent="0.35">
-      <c r="O27" s="32" t="s">
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="37"/>
+    </row>
+    <row r="27" spans="7:29">
+      <c r="O27" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="34"/>
-      <c r="S27" s="35" t="s">
+      <c r="P27" s="39"/>
+      <c r="Q27" s="40"/>
+      <c r="S27" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="T27" s="36"/>
-      <c r="U27" s="37"/>
-      <c r="W27" s="38" t="s">
+      <c r="T27" s="42"/>
+      <c r="U27" s="43"/>
+      <c r="W27" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="40"/>
-      <c r="AA27" s="29" t="s">
+      <c r="X27" s="45"/>
+      <c r="Y27" s="46"/>
+      <c r="AA27" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="31"/>
-    </row>
-    <row r="29" spans="7:29" x14ac:dyDescent="0.35">
-      <c r="O29" s="32" t="s">
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="37"/>
+    </row>
+    <row r="29" spans="7:29">
+      <c r="O29" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="34"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="H3:J3"/>
     <mergeCell ref="AA25:AC25"/>
     <mergeCell ref="AA27:AC27"/>
     <mergeCell ref="O25:Q25"/>
@@ -4502,6 +5432,16 @@
     <mergeCell ref="S27:U27"/>
     <mergeCell ref="W25:Y25"/>
     <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
